--- a/PSACucumber/src/test/resources/Data/DemoSprint.xlsx
+++ b/PSACucumber/src/test/resources/Data/DemoSprint.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ContinuumAutomation\BDTAutomationFramework\CucumberFramework\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ContinuumAutomation\PSAAutomation\PSACucumber\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12195" windowHeight="3900"/>
   </bookViews>
   <sheets>
-    <sheet name="12345" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,25 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>RemoteAccess</t>
-  </si>
-  <si>
-    <t>Site table</t>
-  </si>
-  <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>FriendlyName</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>NOCDefined</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Key</t>
   </si>
@@ -50,32 +32,28 @@
     <t>Value</t>
   </si>
   <si>
-    <t>yes</t>
+    <t>recipents</t>
   </si>
   <si>
-    <t>wee</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>sxk</t>
-  </si>
-  <si>
-    <t>sdff</t>
-  </si>
-  <si>
-    <t>dfasdf</t>
+    <t>abc@ascasdf.com;dbfs@xa.com;dffafaf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,13 +76,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,74 +364,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>